--- a/消息协议.xlsx
+++ b/消息协议.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27975" windowHeight="12270"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27975" windowHeight="12270" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="消息协议" sheetId="1" r:id="rId1"/>
+    <sheet name="request" sheetId="1" r:id="rId1"/>
+    <sheet name="notify" sheetId="2" r:id="rId2"/>
+    <sheet name="players" sheetId="4" r:id="rId3"/>
+    <sheet name="tData" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="262">
   <si>
     <t>协议名称</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -372,36 +376,598 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>扩展**</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkplayer.handler.JoinGame</t>
+  </si>
+  <si>
+    <t>加入房间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableid</t>
+  </si>
+  <si>
+    <t>房间号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法类型（对应后端代码路径映射）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>pkplayer.handler.LeaveGame</t>
-  </si>
-  <si>
-    <t>扩展**</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>pkplayer.handler.JoinGame</t>
-  </si>
-  <si>
-    <t>加入房间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>tableid</t>
-  </si>
-  <si>
-    <t>房间号</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkplayer.handler.doActivity</t>
+  </si>
+  <si>
+    <t>pkplayer.handler.getSymjLog</t>
+  </si>
+  <si>
+    <t>login.handler.GetPinfo</t>
+  </si>
+  <si>
+    <t>得到玩家的某些信息</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到日志log（有可能没有用）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求活动信息</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pinfo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginCode</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>idcard</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>realName</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册的手机号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册的身份证号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册的真实姓名</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间人不够的时候,直接解散房间</t>
+  </si>
+  <si>
+    <t>pkroom.handler.tableMsg</t>
+  </si>
+  <si>
+    <t>DelRoom</t>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否同意解散房间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送聊天消息</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请解散房间notify</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送者uid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天数据</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>表情或者固定文字的index</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天类型（0：输入的文字 1：固定文字 2：表情）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>card</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sting:DelRoom</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:MJChat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:MJPut</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:MJChi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>eatFlag</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkroom.handler.tableMsg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:MJPeng</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>杠</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出一张牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:MJGang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:MJHu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>过</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:MJPass</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知语音</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:downAndPlayVoice</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己的uid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJChat</t>
+  </si>
+  <si>
+    <t>聊天</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>downAndPlayVoice</t>
+  </si>
+  <si>
+    <t>播放语音</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送者uid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程语音服务器存储的某条语音文件名称</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>initSceneData</t>
+  </si>
+  <si>
+    <t>addPlayer</t>
+  </si>
+  <si>
+    <t>updateInfo</t>
+  </si>
+  <si>
+    <t>mjhand</t>
+  </si>
+  <si>
+    <t>roundEnd</t>
+  </si>
+  <si>
+    <t>endRoom</t>
+  </si>
+  <si>
+    <t>MJTick</t>
+  </si>
+  <si>
+    <t>MJPut</t>
+  </si>
+  <si>
+    <t>MJPass</t>
+  </si>
+  <si>
+    <t>newCard</t>
+  </si>
+  <si>
+    <t>waitPut</t>
+  </si>
+  <si>
+    <t>MJChi</t>
+  </si>
+  <si>
+    <t>MJPeng</t>
+  </si>
+  <si>
+    <t>MJGang</t>
+  </si>
+  <si>
+    <t>initSceneData</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化房间数据</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>players</t>
+  </si>
+  <si>
+    <t>tData</t>
+  </si>
+  <si>
+    <t>serverNow</t>
   </si>
   <si>
     <t>gameid</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩法类型（对应后端代码路径映射）</t>
+  </si>
+  <si>
+    <t>ahmj</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌桌数据</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1497421537653</t>
+  </si>
+  <si>
+    <t>所有角色数据（扩展见sheet_players）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌桌数据（扩展见sheet_tData)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>有玩家加入</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>tData</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家数据</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mjhand</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌数据</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>newCard</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>发牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单一个数字：例如：3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>waitPut</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待打牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>players</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>杠</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJGang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>card</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>eatFlag</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>__route__</t>
+  </si>
+  <si>
+    <t>gang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJPut</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>__route__</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>putType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJChi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mjchi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[25,23,24]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>from</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJPeng</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>过</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mjState</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>passPengCards</t>
+  </si>
+  <si>
+    <t>roundEnd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一局结束</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>playInfo</t>
+  </si>
+  <si>
+    <t>endRoom</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>解散房间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>reason</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>showEnd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DelRoom</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请解散房间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>nouid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100882]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>onlinePlayer</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家上线</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>onLine</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +975,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="27">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,6 +1199,30 @@
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1068,7 +1658,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1136,6 +1726,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1473,11 +2087,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H181"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2518,12 +3132,12 @@
       <c r="A60" s="19"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>16</v>
@@ -2536,7 +3150,7 @@
       <c r="A61" s="19"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -2562,22 +3176,22 @@
     </row>
     <row r="63" spans="1:8" ht="14.25">
       <c r="A63" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="C63" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>110</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>16</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>16</v>
@@ -2590,13 +3204,13 @@
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -2614,10 +3228,10 @@
     </row>
     <row r="66" spans="1:8" ht="14.25">
       <c r="A66" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>95</v>
+        <v>113</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>135</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>95</v>
@@ -2625,7 +3239,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>16</v>
@@ -2634,54 +3248,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="14.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-    </row>
-    <row r="68" spans="1:8" ht="14.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-    </row>
+    <row r="68" spans="1:8" s="12" customFormat="1"/>
     <row r="69" spans="1:8" ht="14.25">
       <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="10"/>
     </row>
     <row r="70" spans="1:8" ht="14.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
+      <c r="A70" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
     </row>
     <row r="71" spans="1:8" ht="14.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
+      <c r="A71" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="1:8" ht="14.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
+    <row r="72" spans="1:8" s="12" customFormat="1" ht="14.25">
+      <c r="A72" s="27"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
     </row>
     <row r="73" spans="1:8" ht="14.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
+      <c r="A73" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H73" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:8" ht="14.25">
       <c r="A74" s="5"/>
@@ -2689,6 +3320,13 @@
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
+      <c r="F74" t="s">
+        <v>122</v>
+      </c>
+      <c r="G74" t="s">
+        <v>123</v>
+      </c>
+      <c r="H74" s="24"/>
     </row>
     <row r="75" spans="1:8" ht="14.25">
       <c r="A75" s="5"/>
@@ -2696,9 +3334,13 @@
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
+      <c r="F75" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G75" t="s">
+        <v>121</v>
+      </c>
+      <c r="H75" s="24"/>
     </row>
     <row r="76" spans="1:8" ht="14.25">
       <c r="A76" s="5"/>
@@ -2706,9 +3348,15 @@
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
+      <c r="F76" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G76" t="s">
+        <v>126</v>
+      </c>
+      <c r="H76" s="24" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="77" spans="1:8" ht="14.25">
       <c r="A77" s="5"/>
@@ -2716,9 +3364,13 @@
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
+      <c r="F77" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G77" t="s">
+        <v>126</v>
+      </c>
+      <c r="H77" s="24"/>
     </row>
     <row r="78" spans="1:8" ht="14.25">
       <c r="A78" s="5"/>
@@ -2726,9 +3378,13 @@
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
+      <c r="F78" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H78" s="10"/>
     </row>
     <row r="79" spans="1:8" ht="14.25">
       <c r="A79" s="5"/>
@@ -2736,9 +3392,15 @@
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
+      <c r="F79" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="80" spans="1:8" ht="14.25">
       <c r="A80" s="5"/>
@@ -2746,9 +3408,15 @@
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
+      <c r="F80" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="81" spans="1:8" ht="14.25">
       <c r="A81" s="5"/>
@@ -2756,155 +3424,233 @@
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-    </row>
-    <row r="82" spans="1:8" ht="14.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
+      <c r="F81" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="12" customFormat="1" ht="14.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="22"/>
     </row>
     <row r="83" spans="1:8" ht="14.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
+      <c r="A83" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
+      <c r="H83" s="10"/>
     </row>
     <row r="84" spans="1:8" ht="14.25">
       <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-    </row>
-    <row r="85" spans="1:8" ht="14.25">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
+      <c r="H84" s="10"/>
+    </row>
+    <row r="85" spans="1:8" s="12" customFormat="1" ht="14.25">
+      <c r="A85" s="11"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="22"/>
     </row>
     <row r="86" spans="1:8" ht="14.25">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
+      <c r="A86" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
+      <c r="H86" s="10"/>
     </row>
     <row r="87" spans="1:8" ht="14.25">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
+      <c r="C87" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
+      <c r="H87" s="10"/>
     </row>
     <row r="88" spans="1:8" ht="14.25">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
+      <c r="C88" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
+      <c r="H88" s="10"/>
     </row>
     <row r="89" spans="1:8" ht="14.25">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
+      <c r="C89" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
+      <c r="H89" s="10"/>
     </row>
     <row r="90" spans="1:8" ht="14.25">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
+      <c r="C90" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-    </row>
-    <row r="91" spans="1:8" ht="14.25">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
+      <c r="H90" s="10"/>
+    </row>
+    <row r="91" spans="1:8" s="12" customFormat="1" ht="14.25">
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="22"/>
     </row>
     <row r="92" spans="1:8" ht="14.25">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
+      <c r="A92" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
+      <c r="H92" s="10"/>
     </row>
     <row r="93" spans="1:8" ht="14.25">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
+      <c r="C93" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-    </row>
-    <row r="94" spans="1:8" ht="14.25">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
+      <c r="H93" s="10"/>
+    </row>
+    <row r="94" spans="1:8" s="12" customFormat="1" ht="14.25">
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="22"/>
     </row>
     <row r="95" spans="1:8" ht="14.25">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
+      <c r="A95" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
+      <c r="H95" s="10"/>
     </row>
     <row r="96" spans="1:8" ht="14.25">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
+      <c r="C96" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
@@ -2913,28 +3659,40 @@
     <row r="97" spans="1:8" ht="14.25">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
+      <c r="C97" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
     </row>
-    <row r="98" spans="1:8" ht="14.25">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
+    <row r="98" spans="1:8" s="12" customFormat="1" ht="14.25">
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
     </row>
     <row r="99" spans="1:8" ht="14.25">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
+      <c r="A99" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
@@ -2943,28 +3701,40 @@
     <row r="100" spans="1:8" ht="14.25">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
+      <c r="C100" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
     </row>
-    <row r="101" spans="1:8" ht="14.25">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
+    <row r="101" spans="1:8" s="12" customFormat="1" ht="14.25">
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
     </row>
     <row r="102" spans="1:8" ht="14.25">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
+      <c r="A102" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
@@ -2973,8 +3743,12 @@
     <row r="103" spans="1:8" ht="14.25">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
+      <c r="C103" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
@@ -2983,28 +3757,40 @@
     <row r="104" spans="1:8" ht="14.25">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
+      <c r="C104" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
     </row>
-    <row r="105" spans="1:8" ht="14.25">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
+    <row r="105" spans="1:8" s="12" customFormat="1" ht="14.25">
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
     </row>
     <row r="106" spans="1:8" ht="14.25">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
+      <c r="A106" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
@@ -3013,28 +3799,40 @@
     <row r="107" spans="1:8" ht="14.25">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
+      <c r="C107" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
     </row>
-    <row r="108" spans="1:8" ht="14.25">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
+    <row r="108" spans="1:8" s="12" customFormat="1" ht="14.25">
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
     </row>
     <row r="109" spans="1:8" ht="14.25">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
+      <c r="A109" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
@@ -3043,28 +3841,40 @@
     <row r="110" spans="1:8" ht="14.25">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
+      <c r="C110" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
     </row>
-    <row r="111" spans="1:8" ht="14.25">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
+    <row r="111" spans="1:8" s="12" customFormat="1" ht="14.25">
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
     </row>
     <row r="112" spans="1:8" ht="14.25">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
+      <c r="A112" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
@@ -3073,9 +3883,15 @@
     <row r="113" spans="1:8" ht="14.25">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
+      <c r="C113" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
@@ -3083,9 +3899,15 @@
     <row r="114" spans="1:8" ht="14.25">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
+      <c r="C114" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E114" s="10">
+        <v>3</v>
+      </c>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
@@ -3093,9 +3915,15 @@
     <row r="115" spans="1:8" ht="14.25">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
+      <c r="C115" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
@@ -3103,7 +3931,9 @@
     <row r="116" spans="1:8" ht="14.25">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
+      <c r="C116" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -3749,16 +4579,6 @@
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
-    </row>
-    <row r="181" spans="1:8" ht="14.25">
-      <c r="A181" s="5"/>
-      <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="5"/>
-      <c r="H181" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -3771,4 +4591,1018 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="38.375" customWidth="1"/>
+    <col min="2" max="2" width="51.375" customWidth="1"/>
+    <col min="3" max="3" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="47.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25">
+      <c r="A2" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25">
+      <c r="C3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25">
+      <c r="C4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25">
+      <c r="C5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="12" customFormat="1"/>
+    <row r="7" spans="1:5" ht="14.25">
+      <c r="A7" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25">
+      <c r="C8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="12" customFormat="1"/>
+    <row r="10" spans="1:5" ht="14.25">
+      <c r="A10" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25">
+      <c r="C11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25">
+      <c r="C12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25">
+      <c r="C13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="12" customFormat="1"/>
+    <row r="15" spans="1:5" ht="14.25">
+      <c r="A15" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25">
+      <c r="C16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="12" customFormat="1"/>
+    <row r="18" spans="1:5" ht="14.25">
+      <c r="A18" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25">
+      <c r="C19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="12" customFormat="1"/>
+    <row r="21" spans="1:5" ht="14.25">
+      <c r="A21" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="12" customFormat="1"/>
+    <row r="23" spans="1:5" ht="14.25">
+      <c r="A23" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="12" customFormat="1"/>
+    <row r="26" spans="1:5" ht="14.25">
+      <c r="A26" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="C27" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="C29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="C30" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="C31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="24">
+        <v>101882</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="12" customFormat="1"/>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C33" t="s">
+        <v>226</v>
+      </c>
+      <c r="D33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="C34" t="s">
+        <v>232</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="C35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="24">
+        <v>101921</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="C36" t="s">
+        <v>233</v>
+      </c>
+      <c r="D36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="12" customFormat="1"/>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>234</v>
+      </c>
+      <c r="B38" t="s">
+        <v>235</v>
+      </c>
+      <c r="C38" t="s">
+        <v>236</v>
+      </c>
+      <c r="D38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="C39" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="C40" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="C41" t="s">
+        <v>240</v>
+      </c>
+      <c r="D41" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="C42" t="s">
+        <v>227</v>
+      </c>
+      <c r="D42" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="C43" t="s">
+        <v>222</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="12" customFormat="1"/>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" t="s">
+        <v>242</v>
+      </c>
+      <c r="C45" t="s">
+        <v>211</v>
+      </c>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="C46" t="s">
+        <v>240</v>
+      </c>
+      <c r="D46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="C47" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="12" customFormat="1"/>
+    <row r="49" spans="1:5" ht="14.25">
+      <c r="A49" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49" t="s">
+        <v>243</v>
+      </c>
+      <c r="C49" t="s">
+        <v>244</v>
+      </c>
+      <c r="D49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14.25">
+      <c r="C50" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="12" customFormat="1"/>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>246</v>
+      </c>
+      <c r="B52" t="s">
+        <v>247</v>
+      </c>
+      <c r="C52" t="s">
+        <v>222</v>
+      </c>
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="C53" t="s">
+        <v>211</v>
+      </c>
+      <c r="D53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="C54" t="s">
+        <v>248</v>
+      </c>
+      <c r="D54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="12" customFormat="1"/>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>249</v>
+      </c>
+      <c r="B56" t="s">
+        <v>250</v>
+      </c>
+      <c r="C56" t="s">
+        <v>251</v>
+      </c>
+      <c r="D56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="12" customFormat="1">
+      <c r="C57" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>255</v>
+      </c>
+      <c r="B58" t="s">
+        <v>256</v>
+      </c>
+      <c r="C58" t="s">
+        <v>222</v>
+      </c>
+      <c r="D58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="C59" t="s">
+        <v>211</v>
+      </c>
+      <c r="D59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="C60" t="s">
+        <v>257</v>
+      </c>
+      <c r="D60" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="12" customFormat="1"/>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>259</v>
+      </c>
+      <c r="B62" t="s">
+        <v>260</v>
+      </c>
+      <c r="C62" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" t="s">
+        <v>121</v>
+      </c>
+      <c r="E62" s="24">
+        <v>101881</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="C63" t="s">
+        <v>261</v>
+      </c>
+      <c r="D63" t="s">
+        <v>253</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="C64" t="s">
+        <v>244</v>
+      </c>
+      <c r="D64" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" s="24">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.25">
+      <c r="A1" s="26"/>
+      <c r="H1" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="26"/>
+      <c r="H2" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="H3" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="H4" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25">
+      <c r="H5" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25">
+      <c r="H6" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25">
+      <c r="H7" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25">
+      <c r="H8" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25">
+      <c r="H9" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25">
+      <c r="H10" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.25">
+      <c r="H11" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.25">
+      <c r="H12" s="21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.25">
+      <c r="H13" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.25">
+      <c r="H14" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.25">
+      <c r="H15" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.25">
+      <c r="H16" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" ht="14.25">
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="8:8" ht="14.25">
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="8:8" ht="14.25">
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="8:8" ht="14.25">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="8:8" ht="14.25">
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="8:8" ht="14.25">
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="8:8" ht="14.25">
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="8:8" ht="14.25">
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="8:8" ht="14.25">
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="8:8" ht="14.25">
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="8:8" ht="14.25">
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="8:8" ht="14.25">
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="8:8" ht="14.25">
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="8:8" ht="14.25">
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="8:8" ht="14.25">
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="8:8" ht="14.25">
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="8:8" ht="14.25">
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="8:8" ht="14.25">
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="8:8" ht="14.25">
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="8:8" ht="14.25">
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="8:8" ht="14.25">
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="8:8" ht="14.25">
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="8:8" ht="14.25">
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="8:8" ht="14.25">
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="8:8" ht="14.25">
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="8:8" ht="14.25">
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="8:8" ht="14.25">
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="8:8" ht="14.25">
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="8:8" ht="14.25">
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="8:8" ht="14.25">
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="8:8" ht="14.25">
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="8:8" ht="14.25">
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="8:8" ht="14.25">
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="8:8" ht="14.25">
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="8:8" ht="14.25">
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="8:8" ht="14.25">
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="8:8" ht="14.25">
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="8:8" ht="14.25">
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="8:8" ht="14.25">
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="8:8" ht="14.25">
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="8:8" ht="14.25">
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="8:8" ht="14.25">
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="8:8" ht="14.25">
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="8:8" ht="14.25">
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="8:8" ht="14.25">
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="8:8" ht="14.25">
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="8:8" ht="14.25">
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="8:8" ht="14.25">
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="8:8" ht="14.25">
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="8:8" ht="14.25">
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="8:8" ht="14.25">
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="8:8" ht="14.25">
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="8:8" ht="14.25">
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="8:8" ht="14.25">
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="8:8" ht="14.25">
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="8:8" ht="14.25">
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="8:8" ht="14.25">
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="8:8" ht="14.25">
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="8:8" ht="14.25">
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="8:8" ht="14.25">
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="8:8" ht="14.25">
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="8:8" ht="14.25">
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="8:8" ht="14.25">
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="8:8" ht="14.25">
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="8:8" ht="14.25">
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="8:8" ht="14.25">
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="8:8" ht="14.25">
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="8:8" ht="14.25">
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="8:8" ht="14.25">
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="8:8" ht="14.25">
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="8:8" ht="14.25">
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="8:8" ht="14.25">
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="8:8" ht="14.25">
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="8:8" ht="14.25">
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="8:8" ht="14.25">
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="8:8" ht="14.25">
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="8:8" ht="14.25">
+      <c r="H93" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/消息协议.xlsx
+++ b/消息协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27975" windowHeight="12270" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27975" windowHeight="12270" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="request" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="356">
   <si>
     <t>协议名称</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -968,6 +968,310 @@
   </si>
   <si>
     <t>onLine</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        tState: 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        initCoin: 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        roundNum: 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        roundAll: 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        owner: 101921,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cardNext: 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        winner: -2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        curPlayer: -1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        zhuang: -1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        lastPutPlayer: -1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        putType: 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        lastPut: -1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tableid: 261947,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        delEnd: 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        firstDel: 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        maimaCard: [],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        mode: 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        noBigWin: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgUserCntPerTbl: 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgWithFeng: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgWithZhong: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgWithFaBai: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgWithYaoJiu: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgWithHui: false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgHuiCard: 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgWithJiaoPao: false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgWithJiaoNao: false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgWithJiaoPiao: false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgCanHuHui: false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgRemainedCardCnt: 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgBanGangCardCnt: 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgBanPengCardCnt: 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgBanChiCardCnt: 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgCanChi: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgCanPeng: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgCanMGang: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgCanAGang: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        calcGangWithNoOneWin: false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgCanEatHu: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgCalcAllGang: false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgCalcDianGang: false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgCanHu7: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgCanHu13Lan: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgCanHu13Yao: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgMultiplePao: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgWithGangPao: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgCanRobGang: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgNeedCheckBao: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgPerAGang: 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgPerMGang: 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgPerDGang: 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgPerGangKaiHua: 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgPerRobGang: 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgNextZhuangOfHuangzhuangType: 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgNextZhuangOfZhuangjiaWinType: 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgNextZhuangOfXianjiaWinType: 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgNextZhuangOfYiPaoDuoXiang: 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgScoreBase: 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgScoreMultiple: 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgGuoPengNoPeng: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgGuoGangNoGang: false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgMaiMa: 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgPerMaiMaScore: 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgMaiMaCards: [],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgIsSlidePutCard: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgNeedSortChiCard: false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        isNeedCharge: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgFanpai: false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgCanFengHu: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgFanpaiTian: 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgFanpaiDi: 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        roundName: round4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        gameid: ahmj,</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgBuhuaCards: [61,71,81,91],</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgName: anqing,</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌桌状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币数量（没用到）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余几局</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>总局数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        uids: [101921,101881,101882,101883],</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>房主id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出牌到第几张牌index</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>赢家index</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前控牌者index</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄家index</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次出牌者index</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间变量，用来推出和牌类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后打的牌的牌号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌桌id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻马翻出的牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以标志局数和钻石</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4597,7 +4901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+    <sheetView topLeftCell="B40" workbookViewId="0">
       <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
@@ -5262,14 +5566,456 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="B8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>278</v>
+      </c>
+      <c r="B20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>333</v>
+      </c>
+      <c r="B22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>332</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/消息协议.xlsx
+++ b/消息协议.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27975" windowHeight="12270" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27975" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="request" sheetId="1" r:id="rId1"/>
     <sheet name="notify" sheetId="2" r:id="rId2"/>
-    <sheet name="players" sheetId="4" r:id="rId3"/>
+    <sheet name="player" sheetId="4" r:id="rId3"/>
     <sheet name="tData" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
   </sheets>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="410">
   <si>
     <t>协议名称</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1154,124 +1154,348 @@
     <t xml:space="preserve">        cfgGuoGangNoGang: false,</t>
   </si>
   <si>
+    <t xml:space="preserve">        cfgPerMaiMaScore: 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgIsSlidePutCard: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgNeedSortChiCard: false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        isNeedCharge: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgFanpai: false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgFanpaiDi: 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        roundName: round4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        gameid: ahmj,</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgBuhuaCards: [61,71,81,91],</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgName: anqing,</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌桌状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币数量（没用到）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余几局</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>总局数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        uids: [101921,101881,101882,101883],</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>房主id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出牌到第几张牌index</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>赢家index</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前控牌者index</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄家index</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次出牌者index</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间变量，用来推出和牌类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后打的牌的牌号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌桌id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻马翻出的牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以标志局数和钻石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法名字</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>几人玩法</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否带中</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否带风（东南西北）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否带白</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否带19</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有混儿</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>有混儿的话混儿牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否叫跑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否叫闹</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否叫飘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以胡混儿</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后留几张牌不能打</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后几张不能杠</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后几张不能碰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后几张不能吃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以吃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以碰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以明杠</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以暗杠</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>杠是否也算，在没有人胡的情况下</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以点炮</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否计算所有杠，不论这个人胡不胡</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否计算点杠</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以胡7对</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否胡十三幺</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否胡十三烂</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以一炮多响</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以杠上炮</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以抢杠</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否计算包牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗杠分数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>自摸杠分数（碰完自己又摸一张形成摸杠）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>点杠分数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>杠开花分数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>抢杠分数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>补花牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>换庄类型-荒庄</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>换庄类型-庄家赢</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>换庄类型-闲家赢</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>换庄类型-一炮多响</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.忽略此规则
+1.连庄  
+2.轮庄  
+3.换庄  
+4.最后个出牌者坐庄</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础分</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算系数（安庆的几底几花的花用到了此参数）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否过碰不碰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否过杠不杠</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">        cfgMaiMa: 0,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        cfgPerMaiMaScore: 0,</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>买几马</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一马几分</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        cfgMaiMaCards: [],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        cfgIsSlidePutCard: true,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        cfgNeedSortChiCard: false,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        isNeedCharge: true,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        cfgFanpai: false,</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中马的牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否滑动出牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要排序吃牌（有时候为了分别吃的谁的牌不而不需要对吃的牌进行排序）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否收费</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否翻牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以胡风牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        cfgFanpaiTian: 1,</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        cfgCanFengHu: true,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        cfgFanpaiTian: 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        cfgFanpaiDi: 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        roundName: round4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        gameid: ahmj,</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        cfgBuhuaCards: [61,71,81,91],</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        cfgName: anqing,</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>牌桌状态</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币数量（没用到）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余几局</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>总局数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        uids: [101921,101881,101882,101883],</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>房主id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>出牌到第几张牌index</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>赢家index</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前控牌者index</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>庄家index</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>上次出牌者index</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>中间变量，用来推出和牌类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后打的牌的牌号</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>牌桌id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>翻马翻出的牌</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩法类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以标志局数和钻石</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1279,7 +1503,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1527,6 +1751,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1962,7 +2194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2055,6 +2287,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2393,8 +2631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H180"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
@@ -5566,24 +5804,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B77"/>
+  <dimension ref="A2:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="50.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="2" max="2" width="73.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5591,7 +5830,7 @@
         <v>274</v>
       </c>
       <c r="B3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5599,7 +5838,7 @@
         <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5607,7 +5846,7 @@
         <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5615,7 +5854,7 @@
         <v>264</v>
       </c>
       <c r="B6" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5623,15 +5862,15 @@
         <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="28" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5639,7 +5878,7 @@
         <v>266</v>
       </c>
       <c r="B9" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5647,7 +5886,7 @@
         <v>267</v>
       </c>
       <c r="B10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5655,7 +5894,7 @@
         <v>268</v>
       </c>
       <c r="B11" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5663,7 +5902,7 @@
         <v>269</v>
       </c>
       <c r="B12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5671,7 +5910,7 @@
         <v>270</v>
       </c>
       <c r="B13" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5679,7 +5918,7 @@
         <v>271</v>
       </c>
       <c r="B14" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5687,7 +5926,7 @@
         <v>272</v>
       </c>
       <c r="B15" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5695,7 +5934,7 @@
         <v>273</v>
       </c>
       <c r="B16" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5713,7 +5952,7 @@
         <v>277</v>
       </c>
       <c r="B19" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5721,7 +5960,7 @@
         <v>278</v>
       </c>
       <c r="B20" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5731,288 +5970,456 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B22" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>336</v>
+        <v>332</v>
+      </c>
+      <c r="B23" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>280</v>
       </c>
+      <c r="B24" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>281</v>
       </c>
+      <c r="B25" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>282</v>
       </c>
+      <c r="B26" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>283</v>
       </c>
+      <c r="B27" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>284</v>
       </c>
+      <c r="B28" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>285</v>
       </c>
+      <c r="B29" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>286</v>
       </c>
+      <c r="B30" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>287</v>
       </c>
+      <c r="B31" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="28" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>331</v>
+      </c>
+      <c r="B59" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60" t="s">
+        <v>389</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61" t="s">
+        <v>390</v>
+      </c>
+      <c r="C61" s="31"/>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62" t="s">
+        <v>391</v>
+      </c>
+      <c r="C62" s="31"/>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63" t="s">
+        <v>392</v>
+      </c>
+      <c r="C63" s="31"/>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
+        <v>398</v>
+      </c>
+      <c r="B68" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>401</v>
+      </c>
+      <c r="B70" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+      <c r="B71" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+      <c r="B72" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+      <c r="B73" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+      <c r="B74" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>409</v>
+      </c>
+      <c r="B75" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>332</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C60:C63"/>
+  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
